--- a/Proj6/data/data.xlsx
+++ b/Proj6/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Desktop\10_projects_python_learning_data_analysis-main\Proj6\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Desktop\10_projects__python_learning-main\Proj6\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="19">
   <si>
     <t>patients</t>
   </si>
@@ -64,102 +64,6 @@
   </si>
   <si>
     <t>aod_330</t>
-  </si>
-  <si>
-    <t>bi_luhui</t>
-  </si>
-  <si>
-    <t>cao_daren</t>
-  </si>
-  <si>
-    <t>chang_le</t>
-  </si>
-  <si>
-    <t>chang_yangbo</t>
-  </si>
-  <si>
-    <t>chen_xin</t>
-  </si>
-  <si>
-    <t>diao_chan</t>
-  </si>
-  <si>
-    <t>duan_caimiao</t>
-  </si>
-  <si>
-    <t>feng_dongrong</t>
-  </si>
-  <si>
-    <t>guo_jiacheng</t>
-  </si>
-  <si>
-    <t>hao_lingping</t>
-  </si>
-  <si>
-    <t>hao_wanlin</t>
-  </si>
-  <si>
-    <t>he_yu</t>
-  </si>
-  <si>
-    <t>jia_yixuan</t>
-  </si>
-  <si>
-    <t>liu_huan</t>
-  </si>
-  <si>
-    <t>liu_yiting</t>
-  </si>
-  <si>
-    <t>li_xiaofei</t>
-  </si>
-  <si>
-    <t>li_zilin</t>
-  </si>
-  <si>
-    <t>ma_dexu</t>
-  </si>
-  <si>
-    <t>tan_xiaobo</t>
-  </si>
-  <si>
-    <t>tian_wei</t>
-  </si>
-  <si>
-    <t>wang_weitian</t>
-  </si>
-  <si>
-    <t>wang_yuxiang</t>
-  </si>
-  <si>
-    <t>wang_ziwei</t>
-  </si>
-  <si>
-    <t>wu_lijuan</t>
-  </si>
-  <si>
-    <t>xu_qi</t>
-  </si>
-  <si>
-    <t>xu_xin</t>
-  </si>
-  <si>
-    <t>yang_jing</t>
-  </si>
-  <si>
-    <t>yue_bolin</t>
-  </si>
-  <si>
-    <t>zhang_haixia</t>
-  </si>
-  <si>
-    <t>zhang_jiale</t>
-  </si>
-  <si>
-    <t>zhang_juan</t>
-  </si>
-  <si>
-    <t>zhao_yanlin</t>
   </si>
   <si>
     <t>os</t>
@@ -548,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,14 +530,14 @@
       <c r="AM1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>407.02007698514097</v>
@@ -645,89 +549,89 @@
         <v>303.85909135213109</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>250.38079321034519</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O2">
         <v>379.73676083251371</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>207.83470901701989</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>17</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>407.03739745886151</v>
@@ -748,13 +652,13 @@
         <v>457.40096951330452</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>319.10240324546169</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M4">
         <v>309.67819209548787</v>
@@ -767,14 +671,14 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>17</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>543.34086637341647</v>
@@ -810,18 +714,18 @@
         <v>353.69060994554252</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>439.06363592267593</v>
@@ -851,7 +755,7 @@
         <v>378.25962476762328</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>439.06363592267593</v>
@@ -861,14 +765,14 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>577.57784151508304</v>
@@ -880,7 +784,7 @@
         <v>577.36842242135526</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>418.46420053106408</v>
@@ -895,7 +799,7 @@
         <v>186.94891571028469</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M7">
         <v>446.56466610765892</v>
@@ -908,14 +812,14 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>320.72839742227308</v>
@@ -939,7 +843,7 @@
         <v>255.1010400680502</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>342.32253426013568</v>
@@ -948,21 +852,21 @@
         <v>309.93512371825329</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O8">
         <v>406.0687944588401</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>438.38808666716648</v>
@@ -983,13 +887,13 @@
         <v>358.58138355858358</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>429.71990029235991</v>
@@ -998,18 +902,18 @@
         <v>462.96957653014402</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>469.9194437834912</v>
@@ -1018,151 +922,151 @@
         <v>400.12012847111652</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>612.05345725468953</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>584.43662402774999</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>360.76141134447408</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>291.01963996880932</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I11">
         <v>500.03857727032982</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O11">
         <v>472.13651538853338</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>21</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>409.33333292014328</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>376.85143556375158</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L12">
         <v>426.48202442859338</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>22</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>288.67377645274092</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H13">
         <v>343.72599434072038</v>
@@ -1171,33 +1075,33 @@
         <v>371.27970665368719</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M13">
         <v>397.66540375656967</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O13">
         <v>421.77914110429452</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>465.34989852626262</v>
@@ -1212,22 +1116,22 @@
         <v>363.29704091323521</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>306.20730689581058</v>
@@ -1237,14 +1141,14 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>23</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>338.05372929258141</v>
@@ -1256,25 +1160,25 @@
         <v>223.6181434599157</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>261.71901622651461</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L15">
         <v>180.67381370530899</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>240.89841827374539</v>
@@ -1284,14 +1188,14 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>411.07262634180711</v>
@@ -1306,13 +1210,13 @@
         <v>338.34953307586932</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K16">
         <v>251.27068427613361</v>
@@ -1331,14 +1235,14 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>445.17306021913549</v>
@@ -1353,39 +1257,39 @@
         <v>399.08848535500522</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O17">
         <v>315.21844471347339</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>450.31055900621118</v>
@@ -1400,19 +1304,19 @@
         <v>443.63492630936821</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>409.9496516286984</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K18">
         <v>318.60690261930432</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>325.06865551953922</v>
@@ -1421,18 +1325,18 @@
         <v>407.59020957784747</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>25</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>462.49060575497992</v>
@@ -1453,7 +1357,7 @@
         <v>298.75038922852099</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K19">
         <v>326.57898042195541</v>
@@ -1472,14 +1376,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>26</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>586.54018715934808</v>
@@ -1497,19 +1401,19 @@
         <v>418.4987012542328</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>456.32721282681871</v>
@@ -1519,14 +1423,14 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>27</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>335.97592850658862</v>
@@ -1541,22 +1445,22 @@
         <v>325.33642638949249</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I21">
         <v>231.5587032292602</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K21">
         <v>280.9141557145083</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>275.57330238246311</v>
@@ -1566,14 +1470,14 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>27</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>409.24168537580613</v>
@@ -1588,39 +1492,39 @@
         <v>392.83710065919303</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I22">
         <v>274.76070701797607</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <v>377.45601261219161</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O22">
         <v>437.03093390451528</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>28</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>554.1921203427562</v>
@@ -1644,7 +1548,7 @@
         <v>366.1054535581244</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L23">
         <v>354.24325152358227</v>
@@ -1660,14 +1564,14 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>28</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>487.76535246212387</v>
@@ -1688,39 +1592,39 @@
         <v>298.31067331307469</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L24">
         <v>292.83851271861431</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>310.1473943949876</v>
       </c>
       <c r="O24" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>29</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>398.62936274967558</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <v>350.71969683220709</v>
@@ -1732,19 +1636,19 @@
         <v>218.5154669522577</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>289.22322243813761</v>
@@ -1754,14 +1658,14 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>29</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>396.05298200283028</v>
@@ -1773,25 +1677,25 @@
         <v>284.45881383077972</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>240.3746159957125</v>
@@ -1801,14 +1705,14 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>30</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>408.94538525945001</v>
@@ -1826,10 +1730,10 @@
         <v>233.06927953400469</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K27">
         <v>267.2286152576105</v>
@@ -1848,14 +1752,14 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>30</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>301.52946261669342</v>
@@ -1864,7 +1768,7 @@
         <v>417.88626269592407</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G28">
         <v>383.70135413223511</v>
@@ -1873,16 +1777,16 @@
         <v>263.10949997638983</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J28">
         <v>203.47914338615021</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>342.667226438765</v>
@@ -1895,14 +1799,14 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>31</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>301.46040393421748</v>
@@ -1911,28 +1815,28 @@
         <v>414.86356914109592</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G29">
         <v>361.04965293159762</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>363.85942023353442</v>
@@ -1942,14 +1846,14 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>31</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>486.33941762978827</v>
@@ -1967,19 +1871,19 @@
         <v>565.56092919053788</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L30">
         <v>360.20553859972148</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>458.7696434810295</v>
@@ -1989,14 +1893,14 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>32</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>378.80589767424539</v>
@@ -2014,19 +1918,19 @@
         <v>322.2695899603093</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <v>340.1919535439261</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>366.90493679205252</v>
@@ -2036,14 +1940,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>33</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>641.06758564420761</v>
@@ -2083,14 +1987,14 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>34</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>407.39947465437888</v>
@@ -2111,7 +2015,7 @@
         <v>330.8023864188977</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K33">
         <v>426.79780261000468</v>
@@ -2126,18 +2030,18 @@
         <v>413.36707868997439</v>
       </c>
       <c r="O33" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>34</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>547.98893652094034</v>
@@ -2155,16 +2059,16 @@
         <v>435.97559547132812</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M34">
         <v>483.37396864822591</v>
@@ -2177,14 +2081,14 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>35</v>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>274.17283941714328</v>
@@ -2199,39 +2103,39 @@
         <v>242.17132697806909</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O35" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>363.56671003300028</v>
@@ -2243,42 +2147,42 @@
         <v>380.3911293510111</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J36">
         <v>319.67037000146911</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O36">
         <v>357.78280156539148</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>471.07468346928101</v>
@@ -2302,30 +2206,30 @@
         <v>465.75517077321751</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L37">
         <v>379.61884398899048</v>
       </c>
       <c r="M37" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N37" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O37">
         <v>450.98175567005268</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>36</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>593.3221482777268</v>
@@ -2334,7 +2238,7 @@
         <v>604.2946808164611</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G38">
         <v>510.59574681544677</v>
@@ -2343,16 +2247,16 @@
         <v>554.51308495866772</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M38">
         <v>534.81335712094813</v>
@@ -2365,14 +2269,14 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>37</v>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>469.32903279393429</v>
@@ -2390,36 +2294,36 @@
         <v>325.03805936893002</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J39">
         <v>266.67802093825418</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L39">
         <v>270.7146941755542</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>319.48921967879119</v>
       </c>
       <c r="O39" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>37</v>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>369.87993479685059</v>
@@ -2431,42 +2335,42 @@
         <v>389.8792273922956</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O40">
         <v>263.52282552368371</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>38</v>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D41">
         <v>362.73639733157898</v>
@@ -2481,22 +2385,22 @@
         <v>607.80727139839439</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I41">
         <v>460.18973923606308</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L41" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>377.45601261219161</v>
@@ -2506,14 +2410,14 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>38</v>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>506.93546653009008</v>
@@ -2531,19 +2435,19 @@
         <v>374.0656673772317</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J42">
         <v>250.3518106075982</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>348.3155625844845</v>
@@ -2553,14 +2457,14 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>39</v>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>395.28053596141831</v>
@@ -2575,22 +2479,22 @@
         <v>324.85763301066498</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>282.47881693256841</v>
@@ -2600,14 +2504,14 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>40</v>
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>460.48275017614469</v>
@@ -2631,13 +2535,13 @@
         <v>215.18118914405181</v>
       </c>
       <c r="K44" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L44">
         <v>270.32329877010068</v>
       </c>
       <c r="M44" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>408.75421237360058</v>
@@ -2647,14 +2551,14 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>40</v>
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>417.93320348597967</v>
@@ -2675,16 +2579,16 @@
         <v>245.40629728116019</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L45" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>348.93614302823642</v>
@@ -2694,14 +2598,14 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>41</v>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>394.12494548842011</v>
@@ -2716,16 +2620,16 @@
         <v>243.31892972495999</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L46">
         <v>59.498227389561791</v>
@@ -2741,14 +2645,14 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>42</v>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>364.21060465055513</v>
@@ -2778,24 +2682,24 @@
         <v>299.92108594258713</v>
       </c>
       <c r="M47" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>322.10807737336262</v>
       </c>
       <c r="O47" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>42</v>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>548.86737789535539</v>
@@ -2813,7 +2717,7 @@
         <v>431.09980702017958</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <v>321.1184206749719</v>
@@ -2825,7 +2729,7 @@
         <v>250.98404011312161</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>369.62506884786319</v>
@@ -2835,44 +2739,44 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>43</v>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F49">
         <v>262.11863813986162</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>336.42329253999452</v>
@@ -2882,35 +2786,35 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>43</v>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>324.51713798261181</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K50">
         <v>269.86915117754899</v>
@@ -2922,68 +2826,68 @@
         <v>436.26711080578377</v>
       </c>
       <c r="N50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="O50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>237.0600434740283</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H51">
         <v>237.57205280370229</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>44</v>
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>414.86356914109581</v>
@@ -2992,45 +2896,45 @@
         <v>224.45820433436529</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O52" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>45</v>
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>308.02986956493709</v>
@@ -3039,92 +2943,92 @@
         <v>253.10221063798861</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G53">
         <v>306.35765290541332</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L53" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M53">
         <v>304.77542074987502</v>
       </c>
       <c r="N53" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O53">
         <v>264.08632325904853</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>45</v>
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D54">
         <v>339.84977080283682</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H54">
         <v>318.11293842919679</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J54">
         <v>221.71084722597041</v>
       </c>
       <c r="K54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>318.67914404797619</v>
       </c>
       <c r="O54" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>46</v>
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>301.99767606796149</v>
@@ -3133,45 +3037,45 @@
         <v>252.53813613805269</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G55">
         <v>335.29228077157109</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="O55" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>46</v>
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>286.03949804206718</v>
@@ -3180,28 +3084,28 @@
         <v>295.08320080427802</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I56">
         <v>246.4485118872021</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>224.64361443197279</v>
